--- a/data/trans_dic/iP30KDB2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDB2_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>30,96%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,66; 49,49</t>
+          <t>17,03; 37,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,55; 38,64</t>
+          <t>25,61; 47,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 40,45</t>
+          <t>24,17; 39,66</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>51,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>53,4%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,72; 61,97</t>
+          <t>44,87; 58,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,67; 57,45</t>
+          <t>48,85; 61,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,05; 58,1</t>
+          <t>48,95; 57,74</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>57,61%</t>
+          <t>55,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>55,77%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,3; 62,35</t>
+          <t>49,88; 63,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,85; 63,95</t>
+          <t>48,01; 61,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,32; 61,21</t>
+          <t>51,18; 60,28</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>54,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>60,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>58,09%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,07; 67,49</t>
+          <t>47,33; 69,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,99; 59,7</t>
+          <t>54,51; 67,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,36; 62,07</t>
+          <t>52,99; 64,92</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>57,3%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>54,53%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,16; 60,58</t>
+          <t>48,52; 59,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,42; 55,28</t>
+          <t>52,71; 60,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,12; 57,24</t>
+          <t>51,77; 58,27</t>
         </is>
       </c>
     </row>
